--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2198.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2198.xlsx
@@ -354,7 +354,7 @@
         <v>1.761647414724664</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>1.745573444906061</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2198.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2198.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.045196935507938</v>
+        <v>0.8569129109382629</v>
       </c>
       <c r="B1">
-        <v>1.761647414724664</v>
+        <v>1.526379823684692</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>6.273950099945068</v>
       </c>
       <c r="D1">
-        <v>1.745573444906061</v>
+        <v>2.952908039093018</v>
       </c>
       <c r="E1">
-        <v>1.017230766036022</v>
+        <v>1.588418126106262</v>
       </c>
     </row>
   </sheetData>
